--- a/CourseFinalProject/dataFiles/email.xlsx
+++ b/CourseFinalProject/dataFiles/email.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="41">
   <si>
     <t>email</t>
   </si>
@@ -755,7 +755,7 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
